--- a/biology/Botanique/Francoaceae/Francoaceae.xlsx
+++ b/biology/Botanique/Francoaceae/Francoaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Francoaceae est une petite famille de plantes dicotylédones de l'ordre des Geraniales qui comprend deux espèces.
 Ce sont des plantes herbacées, pérennes, à rosette, rhizomateuses, avec des inflorescences de fleurs blanches ou roses, originaires des régions tempérées d'Amérique du Sud (Chili).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Francoa nommé en l'honneur de Francisco Franco (es), médecin espagnol du XVIe siècle.
 </t>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] ce taxon est inexistant.
-La classification phylogénétique APG II (2003)[2] incorpore optionnellement cette famille aux Melianthaceae.
-En classification phylogénétique APG III (2009)[3] cette famille est invalide et ses genres sont incorporés dans la famille Melianthaceae.
-En classification phylogénétique APG IV (2016)[4] le nom de famille Francoaceae se substitue à Melianthaceae  et la famille inclut les Bersamaceae (genres Greyia, Melianthus...), Ledocarpaceae (genres Balbisia (cs), Wendtia...) ou Rhynchothecaceae (genre Rhynchotheca (es)) et Vivianiaceae (genre Viviania)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) ce taxon est inexistant.
+La classification phylogénétique APG II (2003) incorpore optionnellement cette famille aux Melianthaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Melianthaceae.
+En classification phylogénétique APG IV (2016) le nom de famille Francoaceae se substitue à Melianthaceae  et la famille inclut les Bersamaceae (genres Greyia, Melianthus...), Ledocarpaceae (genres Balbisia (cs), Wendtia...) ou Rhynchothecaceae (genre Rhynchotheca (es)) et Vivianiaceae (genre Viviania).
 L'APG IV a permis ainsi de lever l'ambiguïté de nom entre les Melianthaceae (Malvidées de l'ordre des Geraniales) et les Melanthiaceae (Monocotylédones de l'ordre des Liliales).
 </t>
         </is>
@@ -578,12 +594,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 octobre 2016)[6] et DELTA Angio           (2 octobre 2016)[7]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 octobre 2016) et DELTA Angio           (2 octobre 2016):
 Francoa Cav.
 Tetilla DC.
-Selon Tropicos                                           (2 octobre 2016)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
 Balbisia Cav.
 Bersama Fresen.
 Caesarea Cambess.
